--- a/Інфо_борги.xlsx
+++ b/Інфо_борги.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="212">
   <si>
     <t>Під’їзд</t>
   </si>
@@ -663,6 +663,9 @@
   </si>
   <si>
     <t>курс долара</t>
+  </si>
+  <si>
+    <t>70%від вартості іконостасу (30000 $) погашено</t>
   </si>
 </sst>
 </file>
@@ -1353,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="F172" sqref="F172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,6 +1366,7 @@
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
     <col min="4" max="4" width="48.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="55.5703125" customWidth="1"/>
     <col min="11" max="11" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3643,7 +3647,7 @@
         <v>-371.24</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="29"/>
       <c r="B161" s="31"/>
       <c r="C161" s="5">
@@ -3656,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="29"/>
       <c r="B162" s="31"/>
       <c r="C162" s="5">
@@ -3669,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="29"/>
       <c r="B163" s="31"/>
       <c r="C163" s="5">
@@ -3682,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="29"/>
       <c r="B164" s="31" t="s">
         <v>11</v>
@@ -3697,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="29"/>
       <c r="B165" s="31"/>
       <c r="C165" s="5">
@@ -3710,7 +3714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="29"/>
       <c r="B166" s="31"/>
       <c r="C166" s="5">
@@ -3723,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="29"/>
       <c r="B167" s="31"/>
       <c r="C167" s="5">
@@ -3736,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="29"/>
       <c r="B168" s="31"/>
       <c r="C168" s="5">
@@ -3749,7 +3753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="29"/>
       <c r="B169" s="31"/>
       <c r="C169" s="5">
@@ -3761,8 +3765,11 @@
       <c r="E169" s="15">
         <v>19400</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="29"/>
       <c r="B170" s="31">
         <v>4</v>
@@ -3777,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="29"/>
       <c r="B171" s="31"/>
       <c r="C171" s="5">
@@ -3789,8 +3796,11 @@
       <c r="E171" s="15">
         <v>13503.39</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="29"/>
       <c r="B172" s="31"/>
       <c r="C172" s="5">
@@ -3803,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="29"/>
       <c r="B173" s="31"/>
       <c r="C173" s="5">
@@ -3816,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="29"/>
       <c r="B174" s="31"/>
       <c r="C174" s="5">
@@ -3829,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="29"/>
       <c r="B175" s="31"/>
       <c r="C175" s="5">
@@ -3842,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="29"/>
       <c r="B176" s="31">
         <v>5</v>

--- a/Інфо_борги.xlsx
+++ b/Інфо_борги.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="219">
   <si>
     <t>Під’їзд</t>
   </si>
@@ -666,13 +667,34 @@
   </si>
   <si>
     <t>70%від вартості іконостасу (30000 $) погашено</t>
+  </si>
+  <si>
+    <t>Гарасимко Іван Степанович</t>
+  </si>
+  <si>
+    <t>Гринюк Надія</t>
+  </si>
+  <si>
+    <t>Всього</t>
+  </si>
+  <si>
+    <t>Власник</t>
+  </si>
+  <si>
+    <t>борг</t>
+  </si>
+  <si>
+    <t>кладовки</t>
+  </si>
+  <si>
+    <t>89*1750</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,7 +749,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -740,25 +762,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -890,19 +905,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -939,139 +941,239 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1346,21 +1448,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="F172" sqref="F172"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
@@ -1370,43 +1472,52 @@
     <col min="11" max="11" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="41" t="s">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1">
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:13" ht="14.45" customHeight="1">
+      <c r="A2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="50" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="35"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="36"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="47">
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="35"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A4" s="36"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="43">
         <v>1</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="45" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="13">
@@ -1415,9 +1526,11 @@
       <c r="D5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="16">
-        <v>0</v>
-      </c>
+      <c r="E5" s="25">
+        <v>0</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
       <c r="J5" s="5">
         <v>58.27</v>
       </c>
@@ -1429,22 +1542,24 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="31"/>
+    <row r="6" spans="1:13" ht="24">
+      <c r="A6" s="44"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="5">
         <v>37.36</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="15">
-        <v>0</v>
-      </c>
+      <c r="E6" s="26">
+        <v>0</v>
+      </c>
+      <c r="F6" s="53"/>
+      <c r="G6" s="28"/>
       <c r="J6" s="5">
         <v>64.510000000000005</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="19" t="s">
         <v>31</v>
       </c>
       <c r="L6" s="15"/>
@@ -1452,22 +1567,24 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="31"/>
+    <row r="7" spans="1:13">
+      <c r="A7" s="44"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="5">
         <v>36.57</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="26">
         <v>1711.99</v>
       </c>
+      <c r="F7" s="54"/>
+      <c r="G7" s="28"/>
       <c r="J7" s="5">
         <v>73.83</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="19" t="s">
         <v>52</v>
       </c>
       <c r="L7" s="15"/>
@@ -1475,22 +1592,24 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="31"/>
+    <row r="8" spans="1:13">
+      <c r="A8" s="44"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="5">
         <v>65.040000000000006</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="15">
-        <v>0</v>
-      </c>
+      <c r="E8" s="26">
+        <v>0</v>
+      </c>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
       <c r="J8" s="5">
         <v>73.83</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="19" t="s">
         <v>56</v>
       </c>
       <c r="L8" s="15"/>
@@ -1498,22 +1617,24 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="31"/>
+    <row r="9" spans="1:13">
+      <c r="A9" s="44"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="5">
         <v>79.11</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="15">
-        <v>0</v>
-      </c>
+      <c r="E9" s="26">
+        <v>0</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
       <c r="J9" s="5">
         <v>73.83</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="19" t="s">
         <v>57</v>
       </c>
       <c r="L9" s="15"/>
@@ -1521,9 +1642,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="31" t="s">
+    <row r="10" spans="1:13" ht="24">
+      <c r="A10" s="44"/>
+      <c r="B10" s="46" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="5">
@@ -1532,13 +1653,15 @@
       <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="15">
-        <v>0</v>
-      </c>
+      <c r="E10" s="26">
+        <v>0</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
       <c r="J10" s="5">
         <v>73.83</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="19" t="s">
         <v>61</v>
       </c>
       <c r="L10" s="15"/>
@@ -1546,22 +1669,24 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="31"/>
+    <row r="11" spans="1:13">
+      <c r="A11" s="44"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="5">
         <v>37.36</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="15">
-        <v>0</v>
-      </c>
+      <c r="E11" s="26">
+        <v>0</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
       <c r="J11" s="5">
         <v>79.11</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="19" t="s">
         <v>85</v>
       </c>
       <c r="L11" s="15"/>
@@ -1569,22 +1694,24 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="31"/>
+    <row r="12" spans="1:13">
+      <c r="A12" s="44"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="5">
         <v>36.57</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="15">
-        <v>0</v>
-      </c>
+      <c r="E12" s="26">
+        <v>0</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
       <c r="J12" s="5">
         <v>36.57</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="19" t="s">
         <v>87</v>
       </c>
       <c r="L12" s="15"/>
@@ -1592,22 +1719,24 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="31"/>
+    <row r="13" spans="1:13">
+      <c r="A13" s="44"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="5">
         <v>65.040000000000006</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="15">
-        <v>0</v>
-      </c>
+      <c r="E13" s="26">
+        <v>0</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
       <c r="J13" s="5">
         <v>65.040000000000006</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="19" t="s">
         <v>56</v>
       </c>
       <c r="L13" s="15"/>
@@ -1615,22 +1744,24 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="31"/>
+    <row r="14" spans="1:13">
+      <c r="A14" s="44"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="5">
         <v>79.11</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="15">
-        <v>0</v>
-      </c>
+      <c r="E14" s="26">
+        <v>0</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="28"/>
       <c r="J14" s="5">
         <v>37.36</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K14" s="19" t="s">
         <v>92</v>
       </c>
       <c r="L14" s="15"/>
@@ -1638,9 +1769,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="31">
+    <row r="15" spans="1:13" ht="24">
+      <c r="A15" s="44"/>
+      <c r="B15" s="46">
         <v>4</v>
       </c>
       <c r="C15" s="5">
@@ -1649,14 +1780,15 @@
       <c r="D15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" t="s">
+      <c r="E15" s="26"/>
+      <c r="F15" s="22" t="s">
         <v>201</v>
       </c>
+      <c r="G15" s="22"/>
       <c r="J15" s="5">
         <v>36.799999999999997</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="19" t="s">
         <v>185</v>
       </c>
       <c r="L15" s="15"/>
@@ -1664,45 +1796,49 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
-      <c r="B16" s="31"/>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A16" s="44"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="5">
         <v>37.36</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="15">
-        <v>0</v>
-      </c>
+      <c r="E16" s="26">
+        <v>0</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
       <c r="J16" s="12">
         <v>64.510000000000005</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="L16" s="17"/>
+      <c r="L16" s="16"/>
       <c r="M16" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="31"/>
+    <row r="17" spans="1:7">
+      <c r="A17" s="44"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="5">
         <v>36.57</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="31"/>
+      <c r="E17" s="26">
+        <v>0</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="44"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="5">
         <v>65.040000000000006</v>
       </c>
@@ -1713,9 +1849,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="31"/>
+    <row r="19" spans="1:7">
+      <c r="A19" s="44"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="5">
         <v>73.83</v>
       </c>
@@ -1726,9 +1862,9 @@
         <v>6614.89</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="31">
+    <row r="20" spans="1:7">
+      <c r="A20" s="44"/>
+      <c r="B20" s="46">
         <v>5</v>
       </c>
       <c r="C20" s="5">
@@ -1741,9 +1877,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="31"/>
+    <row r="21" spans="1:7">
+      <c r="A21" s="44"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="5">
         <v>37.36</v>
       </c>
@@ -1754,9 +1890,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="31"/>
+    <row r="22" spans="1:7">
+      <c r="A22" s="44"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="5">
         <v>36.57</v>
       </c>
@@ -1767,9 +1903,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="31"/>
+    <row r="23" spans="1:7">
+      <c r="A23" s="44"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="5">
         <v>65.040000000000006</v>
       </c>
@@ -1780,9 +1916,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="31"/>
+    <row r="24" spans="1:7">
+      <c r="A24" s="44"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="5">
         <v>79.11</v>
       </c>
@@ -1793,9 +1929,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="31">
+    <row r="25" spans="1:7">
+      <c r="A25" s="44"/>
+      <c r="B25" s="46">
         <v>6</v>
       </c>
       <c r="C25" s="5">
@@ -1808,9 +1944,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="31"/>
+    <row r="26" spans="1:7">
+      <c r="A26" s="44"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="5">
         <v>37.36</v>
       </c>
@@ -1821,23 +1957,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="31"/>
+    <row r="27" spans="1:7">
+      <c r="A27" s="44"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="5">
         <v>36.57</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="18">
         <v>0</v>
       </c>
       <c r="F27" s="15"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="31"/>
+    <row r="28" spans="1:7">
+      <c r="A28" s="44"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="5">
         <v>65.040000000000006</v>
       </c>
@@ -1848,9 +1984,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="31"/>
+    <row r="29" spans="1:7">
+      <c r="A29" s="44"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="5">
         <v>79.11</v>
       </c>
@@ -1861,9 +1997,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="31">
+    <row r="30" spans="1:7">
+      <c r="A30" s="44"/>
+      <c r="B30" s="46">
         <v>7</v>
       </c>
       <c r="C30" s="5">
@@ -1877,9 +2013,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="31"/>
+    <row r="31" spans="1:7">
+      <c r="A31" s="44"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="5">
         <v>37.36</v>
       </c>
@@ -1890,9 +2026,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="31"/>
+    <row r="32" spans="1:7">
+      <c r="A32" s="44"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="5">
         <v>36.57</v>
       </c>
@@ -1903,9 +2039,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="31"/>
+    <row r="33" spans="1:5">
+      <c r="A33" s="44"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="5">
         <v>65.040000000000006</v>
       </c>
@@ -1916,9 +2052,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
-      <c r="B34" s="31"/>
+    <row r="34" spans="1:5" ht="24">
+      <c r="A34" s="44"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="5">
         <v>79.11</v>
       </c>
@@ -1929,9 +2065,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="31">
+    <row r="35" spans="1:5">
+      <c r="A35" s="44"/>
+      <c r="B35" s="46">
         <v>8</v>
       </c>
       <c r="C35" s="5">
@@ -1944,9 +2080,9 @@
         <v>5994.3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="31"/>
+    <row r="36" spans="1:5">
+      <c r="A36" s="44"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="5">
         <v>37.36</v>
       </c>
@@ -1957,9 +2093,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
-      <c r="B37" s="31"/>
+    <row r="37" spans="1:5">
+      <c r="A37" s="44"/>
+      <c r="B37" s="46"/>
       <c r="C37" s="5">
         <v>36.57</v>
       </c>
@@ -1970,9 +2106,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="33"/>
-      <c r="B38" s="31"/>
+    <row r="38" spans="1:5">
+      <c r="A38" s="44"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="5">
         <v>65.040000000000006</v>
       </c>
@@ -1983,9 +2119,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
-      <c r="B39" s="31"/>
+    <row r="39" spans="1:5">
+      <c r="A39" s="44"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="5">
         <v>79.11</v>
       </c>
@@ -1996,9 +2132,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
-      <c r="B40" s="31">
+    <row r="40" spans="1:5" ht="24">
+      <c r="A40" s="44"/>
+      <c r="B40" s="46">
         <v>9</v>
       </c>
       <c r="C40" s="5">
@@ -2011,9 +2147,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
-      <c r="B41" s="31"/>
+    <row r="41" spans="1:5">
+      <c r="A41" s="44"/>
+      <c r="B41" s="46"/>
       <c r="C41" s="5">
         <v>37.36</v>
       </c>
@@ -2024,9 +2160,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
-      <c r="B42" s="31"/>
+    <row r="42" spans="1:5">
+      <c r="A42" s="44"/>
+      <c r="B42" s="46"/>
       <c r="C42" s="5">
         <v>36.57</v>
       </c>
@@ -2037,9 +2173,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
-      <c r="B43" s="31"/>
+    <row r="43" spans="1:5">
+      <c r="A43" s="44"/>
+      <c r="B43" s="46"/>
       <c r="C43" s="5">
         <v>65.040000000000006</v>
       </c>
@@ -2050,9 +2186,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="33"/>
-      <c r="B44" s="31"/>
+    <row r="44" spans="1:5">
+      <c r="A44" s="44"/>
+      <c r="B44" s="46"/>
       <c r="C44" s="5">
         <v>79.11</v>
       </c>
@@ -2063,9 +2199,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="33"/>
-      <c r="B45" s="31">
+    <row r="45" spans="1:5">
+      <c r="A45" s="44"/>
+      <c r="B45" s="46">
         <v>10</v>
       </c>
       <c r="C45" s="5">
@@ -2078,9 +2214,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="33"/>
-      <c r="B46" s="31"/>
+    <row r="46" spans="1:5">
+      <c r="A46" s="44"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="5">
         <v>37.36</v>
       </c>
@@ -2091,31 +2227,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="33"/>
-      <c r="B47" s="31"/>
+    <row r="47" spans="1:5">
+      <c r="A47" s="44"/>
+      <c r="B47" s="46"/>
       <c r="C47" s="5">
         <v>36.57</v>
       </c>
-      <c r="D47" s="49" t="s">
+      <c r="D47" s="47" t="s">
         <v>47</v>
       </c>
       <c r="E47" s="15">
         <v>7926.3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
-      <c r="B48" s="31"/>
+    <row r="48" spans="1:5">
+      <c r="A48" s="44"/>
+      <c r="B48" s="46"/>
       <c r="C48" s="5">
         <v>65.040000000000006</v>
       </c>
-      <c r="D48" s="50"/>
+      <c r="D48" s="48"/>
       <c r="E48" s="15"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="33"/>
-      <c r="B49" s="31"/>
+    <row r="49" spans="1:6">
+      <c r="A49" s="44"/>
+      <c r="B49" s="46"/>
       <c r="C49" s="5">
         <v>79.11</v>
       </c>
@@ -2126,11 +2262,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="33">
+    <row r="50" spans="1:6">
+      <c r="A50" s="44">
         <v>2</v>
       </c>
-      <c r="B50" s="31">
+      <c r="B50" s="46">
         <v>2</v>
       </c>
       <c r="C50" s="5">
@@ -2143,9 +2279,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="33"/>
-      <c r="B51" s="31"/>
+    <row r="51" spans="1:6">
+      <c r="A51" s="44"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="5">
         <v>58.4</v>
       </c>
@@ -2156,9 +2292,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="33"/>
-      <c r="B52" s="31"/>
+    <row r="52" spans="1:6">
+      <c r="A52" s="44"/>
+      <c r="B52" s="46"/>
       <c r="C52" s="5">
         <v>58.4</v>
       </c>
@@ -2169,9 +2305,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="33"/>
-      <c r="B53" s="31"/>
+    <row r="53" spans="1:6">
+      <c r="A53" s="44"/>
+      <c r="B53" s="46"/>
       <c r="C53" s="5">
         <v>73.83</v>
       </c>
@@ -2183,9 +2319,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="33"/>
-      <c r="B54" s="31">
+    <row r="54" spans="1:6">
+      <c r="A54" s="44"/>
+      <c r="B54" s="46">
         <v>3</v>
       </c>
       <c r="C54" s="5">
@@ -2198,9 +2334,9 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="33"/>
-      <c r="B55" s="31"/>
+    <row r="55" spans="1:6">
+      <c r="A55" s="44"/>
+      <c r="B55" s="46"/>
       <c r="C55" s="5">
         <v>58.4</v>
       </c>
@@ -2211,9 +2347,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="33"/>
-      <c r="B56" s="31"/>
+    <row r="56" spans="1:6">
+      <c r="A56" s="44"/>
+      <c r="B56" s="46"/>
       <c r="C56" s="5">
         <v>58.4</v>
       </c>
@@ -2224,9 +2360,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="33"/>
-      <c r="B57" s="31"/>
+    <row r="57" spans="1:6">
+      <c r="A57" s="44"/>
+      <c r="B57" s="46"/>
       <c r="C57" s="5">
         <v>73.83</v>
       </c>
@@ -2238,9 +2374,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="33"/>
-      <c r="B58" s="31">
+    <row r="58" spans="1:6">
+      <c r="A58" s="44"/>
+      <c r="B58" s="46">
         <v>4</v>
       </c>
       <c r="C58" s="5">
@@ -2254,9 +2390,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="33"/>
-      <c r="B59" s="31"/>
+    <row r="59" spans="1:6">
+      <c r="A59" s="44"/>
+      <c r="B59" s="46"/>
       <c r="C59" s="5">
         <v>58.4</v>
       </c>
@@ -2267,9 +2403,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="33"/>
-      <c r="B60" s="31"/>
+    <row r="60" spans="1:6">
+      <c r="A60" s="44"/>
+      <c r="B60" s="46"/>
       <c r="C60" s="5">
         <v>58.27</v>
       </c>
@@ -2280,9 +2416,9 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="33"/>
-      <c r="B61" s="31"/>
+    <row r="61" spans="1:6">
+      <c r="A61" s="44"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="5">
         <v>73.83</v>
       </c>
@@ -2293,9 +2429,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="33"/>
-      <c r="B62" s="31">
+    <row r="62" spans="1:6">
+      <c r="A62" s="44"/>
+      <c r="B62" s="46">
         <v>5</v>
       </c>
       <c r="C62" s="5">
@@ -2309,9 +2445,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="33"/>
-      <c r="B63" s="31"/>
+    <row r="63" spans="1:6">
+      <c r="A63" s="44"/>
+      <c r="B63" s="46"/>
       <c r="C63" s="5">
         <v>60.29</v>
       </c>
@@ -2322,9 +2458,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="33"/>
-      <c r="B64" s="31"/>
+    <row r="64" spans="1:6">
+      <c r="A64" s="44"/>
+      <c r="B64" s="46"/>
       <c r="C64" s="5">
         <v>60.62</v>
       </c>
@@ -2335,9 +2471,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="33"/>
-      <c r="B65" s="31"/>
+    <row r="65" spans="1:5">
+      <c r="A65" s="44"/>
+      <c r="B65" s="46"/>
       <c r="C65" s="5">
         <v>76.430000000000007</v>
       </c>
@@ -2348,9 +2484,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="33"/>
-      <c r="B66" s="31">
+    <row r="66" spans="1:5">
+      <c r="A66" s="44"/>
+      <c r="B66" s="46">
         <v>6</v>
       </c>
       <c r="C66" s="5">
@@ -2363,9 +2499,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="33"/>
-      <c r="B67" s="31"/>
+    <row r="67" spans="1:5">
+      <c r="A67" s="44"/>
+      <c r="B67" s="46"/>
       <c r="C67" s="5">
         <v>58.4</v>
       </c>
@@ -2376,9 +2512,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="33"/>
-      <c r="B68" s="31"/>
+    <row r="68" spans="1:5">
+      <c r="A68" s="44"/>
+      <c r="B68" s="46"/>
       <c r="C68" s="5">
         <v>58.4</v>
       </c>
@@ -2389,9 +2525,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="33"/>
-      <c r="B69" s="31"/>
+    <row r="69" spans="1:5">
+      <c r="A69" s="44"/>
+      <c r="B69" s="46"/>
       <c r="C69" s="5">
         <v>73.83</v>
       </c>
@@ -2402,9 +2538,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="33"/>
-      <c r="B70" s="31">
+    <row r="70" spans="1:5">
+      <c r="A70" s="44"/>
+      <c r="B70" s="46">
         <v>7</v>
       </c>
       <c r="C70" s="5">
@@ -2417,9 +2553,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="33"/>
-      <c r="B71" s="31"/>
+    <row r="71" spans="1:5">
+      <c r="A71" s="44"/>
+      <c r="B71" s="46"/>
       <c r="C71" s="5">
         <v>58.4</v>
       </c>
@@ -2430,9 +2566,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="33"/>
-      <c r="B72" s="31"/>
+    <row r="72" spans="1:5">
+      <c r="A72" s="44"/>
+      <c r="B72" s="46"/>
       <c r="C72" s="5">
         <v>58.4</v>
       </c>
@@ -2443,9 +2579,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="33"/>
-      <c r="B73" s="31"/>
+    <row r="73" spans="1:5">
+      <c r="A73" s="44"/>
+      <c r="B73" s="46"/>
       <c r="C73" s="5">
         <v>73.83</v>
       </c>
@@ -2456,9 +2592,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="33"/>
-      <c r="B74" s="31">
+    <row r="74" spans="1:5">
+      <c r="A74" s="44"/>
+      <c r="B74" s="46">
         <v>8</v>
       </c>
       <c r="C74" s="5">
@@ -2471,9 +2607,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="33"/>
-      <c r="B75" s="31"/>
+    <row r="75" spans="1:5">
+      <c r="A75" s="44"/>
+      <c r="B75" s="46"/>
       <c r="C75" s="5">
         <v>58.4</v>
       </c>
@@ -2484,9 +2620,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="33"/>
-      <c r="B76" s="31"/>
+    <row r="76" spans="1:5">
+      <c r="A76" s="44"/>
+      <c r="B76" s="46"/>
       <c r="C76" s="5">
         <v>58.4</v>
       </c>
@@ -2497,9 +2633,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="33"/>
-      <c r="B77" s="31"/>
+    <row r="77" spans="1:5">
+      <c r="A77" s="44"/>
+      <c r="B77" s="46"/>
       <c r="C77" s="5">
         <v>73.83</v>
       </c>
@@ -2510,9 +2646,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="33"/>
-      <c r="B78" s="31">
+    <row r="78" spans="1:5">
+      <c r="A78" s="44"/>
+      <c r="B78" s="46">
         <v>9</v>
       </c>
       <c r="C78" s="5">
@@ -2525,9 +2661,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="33"/>
-      <c r="B79" s="31"/>
+    <row r="79" spans="1:5">
+      <c r="A79" s="44"/>
+      <c r="B79" s="46"/>
       <c r="C79" s="5">
         <v>58.4</v>
       </c>
@@ -2538,9 +2674,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="33"/>
-      <c r="B80" s="31"/>
+    <row r="80" spans="1:5">
+      <c r="A80" s="44"/>
+      <c r="B80" s="46"/>
       <c r="C80" s="5">
         <v>58.4</v>
       </c>
@@ -2551,9 +2687,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="33"/>
-      <c r="B81" s="31"/>
+    <row r="81" spans="1:6">
+      <c r="A81" s="44"/>
+      <c r="B81" s="46"/>
       <c r="C81" s="5">
         <v>73.83</v>
       </c>
@@ -2564,9 +2700,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="33"/>
-      <c r="B82" s="31">
+    <row r="82" spans="1:6">
+      <c r="A82" s="44"/>
+      <c r="B82" s="46">
         <v>10</v>
       </c>
       <c r="C82" s="5">
@@ -2579,9 +2715,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="33"/>
-      <c r="B83" s="37"/>
+    <row r="83" spans="1:6">
+      <c r="A83" s="44"/>
+      <c r="B83" s="49"/>
       <c r="C83" s="5">
         <v>58.4</v>
       </c>
@@ -2592,9 +2728,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="33"/>
-      <c r="B84" s="37"/>
+    <row r="84" spans="1:6">
+      <c r="A84" s="44"/>
+      <c r="B84" s="49"/>
       <c r="C84" s="5">
         <v>58.4</v>
       </c>
@@ -2605,9 +2741,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="33"/>
-      <c r="B85" s="37"/>
+    <row r="85" spans="1:6">
+      <c r="A85" s="44"/>
+      <c r="B85" s="49"/>
       <c r="C85" s="5">
         <v>73.83</v>
       </c>
@@ -2618,11 +2754,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="24">
+    <row r="86" spans="1:6">
+      <c r="A86" s="55">
         <v>3</v>
       </c>
-      <c r="B86" s="31" t="s">
+      <c r="B86" s="46" t="s">
         <v>5</v>
       </c>
       <c r="C86" s="5">
@@ -2636,9 +2772,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="25"/>
-      <c r="B87" s="31"/>
+    <row r="87" spans="1:6">
+      <c r="A87" s="56"/>
+      <c r="B87" s="46"/>
       <c r="C87" s="5">
         <v>65.040000000000006</v>
       </c>
@@ -2649,9 +2785,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="25"/>
-      <c r="B88" s="31"/>
+    <row r="88" spans="1:6">
+      <c r="A88" s="56"/>
+      <c r="B88" s="46"/>
       <c r="C88" s="5">
         <v>36.57</v>
       </c>
@@ -2663,9 +2799,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="25"/>
-      <c r="B89" s="31"/>
+    <row r="89" spans="1:6">
+      <c r="A89" s="56"/>
+      <c r="B89" s="46"/>
       <c r="C89" s="5">
         <v>37.36</v>
       </c>
@@ -2679,9 +2815,9 @@
         <v>-89.67</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="25"/>
-      <c r="B90" s="31"/>
+    <row r="90" spans="1:6">
+      <c r="A90" s="56"/>
+      <c r="B90" s="46"/>
       <c r="C90" s="5">
         <v>58.27</v>
       </c>
@@ -2692,9 +2828,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="25"/>
-      <c r="B91" s="31" t="s">
+    <row r="91" spans="1:6">
+      <c r="A91" s="56"/>
+      <c r="B91" s="46" t="s">
         <v>11</v>
       </c>
       <c r="C91" s="5">
@@ -2707,9 +2843,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="25"/>
-      <c r="B92" s="31"/>
+    <row r="92" spans="1:6">
+      <c r="A92" s="56"/>
+      <c r="B92" s="46"/>
       <c r="C92" s="5">
         <v>65.040000000000006</v>
       </c>
@@ -2721,9 +2857,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="25"/>
-      <c r="B93" s="31"/>
+    <row r="93" spans="1:6">
+      <c r="A93" s="56"/>
+      <c r="B93" s="46"/>
       <c r="C93" s="5">
         <v>36.57</v>
       </c>
@@ -2734,9 +2870,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="25"/>
-      <c r="B94" s="31"/>
+    <row r="94" spans="1:6">
+      <c r="A94" s="56"/>
+      <c r="B94" s="46"/>
       <c r="C94" s="5">
         <v>37.36</v>
       </c>
@@ -2748,9 +2884,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="25"/>
-      <c r="B95" s="31"/>
+    <row r="95" spans="1:6">
+      <c r="A95" s="56"/>
+      <c r="B95" s="46"/>
       <c r="C95" s="5">
         <v>58.27</v>
       </c>
@@ -2761,9 +2897,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="25"/>
-      <c r="B96" s="31">
+    <row r="96" spans="1:6">
+      <c r="A96" s="56"/>
+      <c r="B96" s="46">
         <v>4</v>
       </c>
       <c r="C96" s="5">
@@ -2776,9 +2912,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="25"/>
-      <c r="B97" s="31"/>
+    <row r="97" spans="1:5">
+      <c r="A97" s="56"/>
+      <c r="B97" s="46"/>
       <c r="C97" s="5">
         <v>65.040000000000006</v>
       </c>
@@ -2789,9 +2925,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="25"/>
-      <c r="B98" s="31"/>
+    <row r="98" spans="1:5">
+      <c r="A98" s="56"/>
+      <c r="B98" s="46"/>
       <c r="C98" s="5">
         <v>36.57</v>
       </c>
@@ -2802,9 +2938,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="25"/>
-      <c r="B99" s="31"/>
+    <row r="99" spans="1:5">
+      <c r="A99" s="56"/>
+      <c r="B99" s="46"/>
       <c r="C99" s="5">
         <v>37.36</v>
       </c>
@@ -2815,9 +2951,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A100" s="25"/>
-      <c r="B100" s="31"/>
+    <row r="100" spans="1:5" ht="24">
+      <c r="A100" s="56"/>
+      <c r="B100" s="46"/>
       <c r="C100" s="5">
         <v>58.27</v>
       </c>
@@ -2828,9 +2964,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="25"/>
-      <c r="B101" s="31">
+    <row r="101" spans="1:5">
+      <c r="A101" s="56"/>
+      <c r="B101" s="46">
         <v>5</v>
       </c>
       <c r="C101" s="5">
@@ -2843,9 +2979,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="25"/>
-      <c r="B102" s="31"/>
+    <row r="102" spans="1:5">
+      <c r="A102" s="56"/>
+      <c r="B102" s="46"/>
       <c r="C102" s="5">
         <v>65.040000000000006</v>
       </c>
@@ -2856,9 +2992,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="25"/>
-      <c r="B103" s="31"/>
+    <row r="103" spans="1:5">
+      <c r="A103" s="56"/>
+      <c r="B103" s="46"/>
       <c r="C103" s="5">
         <v>36.57</v>
       </c>
@@ -2869,9 +3005,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="25"/>
-      <c r="B104" s="31"/>
+    <row r="104" spans="1:5">
+      <c r="A104" s="56"/>
+      <c r="B104" s="46"/>
       <c r="C104" s="5">
         <v>37.36</v>
       </c>
@@ -2882,9 +3018,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="25"/>
-      <c r="B105" s="31"/>
+    <row r="105" spans="1:5">
+      <c r="A105" s="56"/>
+      <c r="B105" s="46"/>
       <c r="C105" s="5">
         <v>58.27</v>
       </c>
@@ -2895,9 +3031,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="25"/>
-      <c r="B106" s="31">
+    <row r="106" spans="1:5">
+      <c r="A106" s="56"/>
+      <c r="B106" s="46">
         <v>6</v>
       </c>
       <c r="C106" s="5">
@@ -2910,9 +3046,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="25"/>
-      <c r="B107" s="31"/>
+    <row r="107" spans="1:5">
+      <c r="A107" s="56"/>
+      <c r="B107" s="46"/>
       <c r="C107" s="5">
         <v>65.040000000000006</v>
       </c>
@@ -2923,9 +3059,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="25"/>
-      <c r="B108" s="31"/>
+    <row r="108" spans="1:5">
+      <c r="A108" s="56"/>
+      <c r="B108" s="46"/>
       <c r="C108" s="5">
         <v>36.57</v>
       </c>
@@ -2936,9 +3072,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="25"/>
-      <c r="B109" s="31"/>
+    <row r="109" spans="1:5">
+      <c r="A109" s="56"/>
+      <c r="B109" s="46"/>
       <c r="C109" s="5">
         <v>37.36</v>
       </c>
@@ -2949,9 +3085,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="25"/>
-      <c r="B110" s="31"/>
+    <row r="110" spans="1:5">
+      <c r="A110" s="56"/>
+      <c r="B110" s="46"/>
       <c r="C110" s="5">
         <v>58.27</v>
       </c>
@@ -2962,9 +3098,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="25"/>
-      <c r="B111" s="31">
+    <row r="111" spans="1:5">
+      <c r="A111" s="56"/>
+      <c r="B111" s="46">
         <v>7</v>
       </c>
       <c r="C111" s="5">
@@ -2977,9 +3113,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="25"/>
-      <c r="B112" s="31"/>
+    <row r="112" spans="1:5">
+      <c r="A112" s="56"/>
+      <c r="B112" s="46"/>
       <c r="C112" s="5">
         <v>65.040000000000006</v>
       </c>
@@ -2990,9 +3126,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="25"/>
-      <c r="B113" s="31"/>
+    <row r="113" spans="1:5">
+      <c r="A113" s="56"/>
+      <c r="B113" s="46"/>
       <c r="C113" s="5">
         <v>36.57</v>
       </c>
@@ -3003,9 +3139,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="25"/>
-      <c r="B114" s="31"/>
+    <row r="114" spans="1:5">
+      <c r="A114" s="56"/>
+      <c r="B114" s="46"/>
       <c r="C114" s="5">
         <v>37.36</v>
       </c>
@@ -3016,9 +3152,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A115" s="25"/>
-      <c r="B115" s="31"/>
+    <row r="115" spans="1:5" ht="24">
+      <c r="A115" s="56"/>
+      <c r="B115" s="46"/>
       <c r="C115" s="5">
         <v>60</v>
       </c>
@@ -3029,9 +3165,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="25"/>
-      <c r="B116" s="31">
+    <row r="116" spans="1:5">
+      <c r="A116" s="56"/>
+      <c r="B116" s="46">
         <v>8</v>
       </c>
       <c r="C116" s="5">
@@ -3044,9 +3180,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="25"/>
-      <c r="B117" s="31"/>
+    <row r="117" spans="1:5">
+      <c r="A117" s="56"/>
+      <c r="B117" s="46"/>
       <c r="C117" s="5">
         <v>65.08</v>
       </c>
@@ -3057,9 +3193,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="25"/>
-      <c r="B118" s="31"/>
+    <row r="118" spans="1:5">
+      <c r="A118" s="56"/>
+      <c r="B118" s="46"/>
       <c r="C118" s="5">
         <v>36.57</v>
       </c>
@@ -3070,9 +3206,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="25"/>
-      <c r="B119" s="31"/>
+    <row r="119" spans="1:5">
+      <c r="A119" s="56"/>
+      <c r="B119" s="46"/>
       <c r="C119" s="5">
         <v>37.36</v>
       </c>
@@ -3083,9 +3219,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="25"/>
-      <c r="B120" s="31"/>
+    <row r="120" spans="1:5">
+      <c r="A120" s="56"/>
+      <c r="B120" s="46"/>
       <c r="C120" s="5">
         <v>58.27</v>
       </c>
@@ -3096,9 +3232,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="25"/>
-      <c r="B121" s="31">
+    <row r="121" spans="1:5">
+      <c r="A121" s="56"/>
+      <c r="B121" s="46">
         <v>9</v>
       </c>
       <c r="C121" s="5">
@@ -3111,9 +3247,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="25"/>
-      <c r="B122" s="31"/>
+    <row r="122" spans="1:5">
+      <c r="A122" s="56"/>
+      <c r="B122" s="46"/>
       <c r="C122" s="5">
         <v>65.040000000000006</v>
       </c>
@@ -3124,9 +3260,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="25"/>
-      <c r="B123" s="31"/>
+    <row r="123" spans="1:5">
+      <c r="A123" s="56"/>
+      <c r="B123" s="46"/>
       <c r="C123" s="5">
         <v>36.57</v>
       </c>
@@ -3137,9 +3273,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="25"/>
-      <c r="B124" s="31"/>
+    <row r="124" spans="1:5">
+      <c r="A124" s="56"/>
+      <c r="B124" s="46"/>
       <c r="C124" s="5">
         <v>37.36</v>
       </c>
@@ -3150,9 +3286,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="25"/>
-      <c r="B125" s="31"/>
+    <row r="125" spans="1:5">
+      <c r="A125" s="56"/>
+      <c r="B125" s="46"/>
       <c r="C125" s="5">
         <v>58.27</v>
       </c>
@@ -3163,9 +3299,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="26"/>
-      <c r="B126" s="31">
+    <row r="126" spans="1:5">
+      <c r="A126" s="57"/>
+      <c r="B126" s="46">
         <v>10</v>
       </c>
       <c r="C126" s="5">
@@ -3178,9 +3314,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="26"/>
-      <c r="B127" s="31"/>
+    <row r="127" spans="1:5">
+      <c r="A127" s="57"/>
+      <c r="B127" s="46"/>
       <c r="C127" s="5">
         <v>65.040000000000006</v>
       </c>
@@ -3191,9 +3327,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="26"/>
-      <c r="B128" s="31"/>
+    <row r="128" spans="1:5">
+      <c r="A128" s="57"/>
+      <c r="B128" s="46"/>
       <c r="C128" s="5">
         <v>36.57</v>
       </c>
@@ -3204,9 +3340,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="26"/>
-      <c r="B129" s="31"/>
+    <row r="129" spans="1:5">
+      <c r="A129" s="57"/>
+      <c r="B129" s="46"/>
       <c r="C129" s="5">
         <v>37.36</v>
       </c>
@@ -3217,9 +3353,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="27"/>
-      <c r="B130" s="31"/>
+    <row r="130" spans="1:5">
+      <c r="A130" s="58"/>
+      <c r="B130" s="46"/>
       <c r="C130" s="5">
         <v>58.27</v>
       </c>
@@ -3230,11 +3366,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="33">
+    <row r="131" spans="1:5">
+      <c r="A131" s="44">
         <v>4</v>
       </c>
-      <c r="B131" s="31">
+      <c r="B131" s="46">
         <v>2</v>
       </c>
       <c r="C131" s="5">
@@ -3247,9 +3383,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="33"/>
-      <c r="B132" s="31"/>
+    <row r="132" spans="1:5">
+      <c r="A132" s="44"/>
+      <c r="B132" s="46"/>
       <c r="C132" s="5">
         <v>54.16</v>
       </c>
@@ -3260,9 +3396,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="33"/>
-      <c r="B133" s="31"/>
+    <row r="133" spans="1:5">
+      <c r="A133" s="44"/>
+      <c r="B133" s="46"/>
       <c r="C133" s="5">
         <v>75.510000000000005</v>
       </c>
@@ -3273,9 +3409,9 @@
         <v>25.56</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="33"/>
-      <c r="B134" s="31">
+    <row r="134" spans="1:5">
+      <c r="A134" s="44"/>
+      <c r="B134" s="46">
         <v>3</v>
       </c>
       <c r="C134" s="5">
@@ -3288,9 +3424,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="33"/>
-      <c r="B135" s="31"/>
+    <row r="135" spans="1:5">
+      <c r="A135" s="44"/>
+      <c r="B135" s="46"/>
       <c r="C135" s="5">
         <v>54</v>
       </c>
@@ -3301,9 +3437,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="33"/>
-      <c r="B136" s="31"/>
+    <row r="136" spans="1:5">
+      <c r="A136" s="44"/>
+      <c r="B136" s="46"/>
       <c r="C136" s="5">
         <v>75.510000000000005</v>
       </c>
@@ -3314,9 +3450,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="33"/>
-      <c r="B137" s="31">
+    <row r="137" spans="1:5">
+      <c r="A137" s="44"/>
+      <c r="B137" s="46">
         <v>4</v>
       </c>
       <c r="C137" s="5">
@@ -3329,9 +3465,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="33"/>
-      <c r="B138" s="31"/>
+    <row r="138" spans="1:5">
+      <c r="A138" s="44"/>
+      <c r="B138" s="46"/>
       <c r="C138" s="5">
         <v>54.16</v>
       </c>
@@ -3342,9 +3478,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="33"/>
-      <c r="B139" s="31"/>
+    <row r="139" spans="1:5">
+      <c r="A139" s="44"/>
+      <c r="B139" s="46"/>
       <c r="C139" s="5">
         <v>75.510000000000005</v>
       </c>
@@ -3355,9 +3491,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="33"/>
-      <c r="B140" s="31">
+    <row r="140" spans="1:5">
+      <c r="A140" s="44"/>
+      <c r="B140" s="46">
         <v>5</v>
       </c>
       <c r="C140" s="5">
@@ -3370,9 +3506,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="33"/>
-      <c r="B141" s="31"/>
+    <row r="141" spans="1:5">
+      <c r="A141" s="44"/>
+      <c r="B141" s="46"/>
       <c r="C141" s="5">
         <v>54.16</v>
       </c>
@@ -3383,9 +3519,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="33"/>
-      <c r="B142" s="31"/>
+    <row r="142" spans="1:5">
+      <c r="A142" s="44"/>
+      <c r="B142" s="46"/>
       <c r="C142" s="5">
         <v>75.510000000000005</v>
       </c>
@@ -3396,9 +3532,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="33"/>
-      <c r="B143" s="31">
+    <row r="143" spans="1:5">
+      <c r="A143" s="44"/>
+      <c r="B143" s="46">
         <v>6</v>
       </c>
       <c r="C143" s="5">
@@ -3411,9 +3547,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="33"/>
-      <c r="B144" s="31"/>
+    <row r="144" spans="1:5">
+      <c r="A144" s="44"/>
+      <c r="B144" s="46"/>
       <c r="C144" s="5">
         <v>54.16</v>
       </c>
@@ -3424,9 +3560,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="33"/>
-      <c r="B145" s="31"/>
+    <row r="145" spans="1:6">
+      <c r="A145" s="44"/>
+      <c r="B145" s="46"/>
       <c r="C145" s="5">
         <v>75.510000000000005</v>
       </c>
@@ -3437,9 +3573,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="33"/>
-      <c r="B146" s="31">
+    <row r="146" spans="1:6">
+      <c r="A146" s="44"/>
+      <c r="B146" s="46">
         <v>7</v>
       </c>
       <c r="C146" s="5">
@@ -3452,9 +3588,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="33"/>
-      <c r="B147" s="31"/>
+    <row r="147" spans="1:6">
+      <c r="A147" s="44"/>
+      <c r="B147" s="46"/>
       <c r="C147" s="5">
         <v>54.16</v>
       </c>
@@ -3465,9 +3601,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="33"/>
-      <c r="B148" s="31"/>
+    <row r="148" spans="1:6">
+      <c r="A148" s="44"/>
+      <c r="B148" s="46"/>
       <c r="C148" s="5">
         <v>75.510000000000005</v>
       </c>
@@ -3478,9 +3614,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="33"/>
-      <c r="B149" s="31">
+    <row r="149" spans="1:6">
+      <c r="A149" s="44"/>
+      <c r="B149" s="46">
         <v>8</v>
       </c>
       <c r="C149" s="5">
@@ -3493,9 +3629,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="33"/>
-      <c r="B150" s="31"/>
+    <row r="150" spans="1:6">
+      <c r="A150" s="44"/>
+      <c r="B150" s="46"/>
       <c r="C150" s="5">
         <v>54.16</v>
       </c>
@@ -3506,9 +3642,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="33"/>
-      <c r="B151" s="31"/>
+    <row r="151" spans="1:6">
+      <c r="A151" s="44"/>
+      <c r="B151" s="46"/>
       <c r="C151" s="5">
         <v>75.510000000000005</v>
       </c>
@@ -3519,9 +3655,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="33"/>
-      <c r="B152" s="31">
+    <row r="152" spans="1:6">
+      <c r="A152" s="44"/>
+      <c r="B152" s="46">
         <v>9</v>
       </c>
       <c r="C152" s="5">
@@ -3534,9 +3670,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="33"/>
-      <c r="B153" s="37"/>
+    <row r="153" spans="1:6">
+      <c r="A153" s="44"/>
+      <c r="B153" s="49"/>
       <c r="C153" s="5">
         <v>54.16</v>
       </c>
@@ -3547,9 +3683,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="33"/>
-      <c r="B154" s="37"/>
+    <row r="154" spans="1:6">
+      <c r="A154" s="44"/>
+      <c r="B154" s="49"/>
       <c r="C154" s="5">
         <v>75.510000000000005</v>
       </c>
@@ -3560,9 +3696,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="33"/>
-      <c r="B155" s="31">
+    <row r="155" spans="1:6">
+      <c r="A155" s="44"/>
+      <c r="B155" s="46">
         <v>10</v>
       </c>
       <c r="C155" s="5">
@@ -3575,9 +3711,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="33"/>
-      <c r="B156" s="37"/>
+    <row r="156" spans="1:6">
+      <c r="A156" s="44"/>
+      <c r="B156" s="49"/>
       <c r="C156" s="5">
         <v>54.16</v>
       </c>
@@ -3588,9 +3724,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="33"/>
-      <c r="B157" s="37"/>
+    <row r="157" spans="1:6">
+      <c r="A157" s="44"/>
+      <c r="B157" s="49"/>
       <c r="C157" s="5">
         <v>75.510000000000005</v>
       </c>
@@ -3601,11 +3737,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="28">
+    <row r="158" spans="1:6">
+      <c r="A158" s="59">
         <v>5</v>
       </c>
-      <c r="B158" s="31" t="s">
+      <c r="B158" s="46" t="s">
         <v>5</v>
       </c>
       <c r="C158" s="5">
@@ -3618,9 +3754,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="29"/>
-      <c r="B159" s="31"/>
+    <row r="159" spans="1:6">
+      <c r="A159" s="60"/>
+      <c r="B159" s="46"/>
       <c r="C159" s="5">
         <v>36.799999999999997</v>
       </c>
@@ -3631,9 +3767,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="29"/>
-      <c r="B160" s="31"/>
+    <row r="160" spans="1:6">
+      <c r="A160" s="60"/>
+      <c r="B160" s="46"/>
       <c r="C160" s="5">
         <v>65</v>
       </c>
@@ -3647,9 +3783,9 @@
         <v>-371.24</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="29"/>
-      <c r="B161" s="31"/>
+    <row r="161" spans="1:7">
+      <c r="A161" s="60"/>
+      <c r="B161" s="46"/>
       <c r="C161" s="5">
         <v>36.6</v>
       </c>
@@ -3660,9 +3796,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="29"/>
-      <c r="B162" s="31"/>
+    <row r="162" spans="1:7">
+      <c r="A162" s="60"/>
+      <c r="B162" s="46"/>
       <c r="C162" s="5">
         <v>37.32</v>
       </c>
@@ -3673,9 +3809,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="29"/>
-      <c r="B163" s="31"/>
+    <row r="163" spans="1:7">
+      <c r="A163" s="60"/>
+      <c r="B163" s="46"/>
       <c r="C163" s="5">
         <v>58.32</v>
       </c>
@@ -3686,9 +3822,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="29"/>
-      <c r="B164" s="31" t="s">
+    <row r="164" spans="1:7">
+      <c r="A164" s="60"/>
+      <c r="B164" s="46" t="s">
         <v>11</v>
       </c>
       <c r="C164" s="5">
@@ -3701,9 +3837,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="29"/>
-      <c r="B165" s="31"/>
+    <row r="165" spans="1:7">
+      <c r="A165" s="60"/>
+      <c r="B165" s="46"/>
       <c r="C165" s="5">
         <v>36.799999999999997</v>
       </c>
@@ -3714,9 +3850,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="29"/>
-      <c r="B166" s="31"/>
+    <row r="166" spans="1:7">
+      <c r="A166" s="60"/>
+      <c r="B166" s="46"/>
       <c r="C166" s="5">
         <v>65.08</v>
       </c>
@@ -3727,9 +3863,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="29"/>
-      <c r="B167" s="31"/>
+    <row r="167" spans="1:7">
+      <c r="A167" s="60"/>
+      <c r="B167" s="46"/>
       <c r="C167" s="5">
         <v>36.6</v>
       </c>
@@ -3740,9 +3876,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="29"/>
-      <c r="B168" s="31"/>
+    <row r="168" spans="1:7">
+      <c r="A168" s="60"/>
+      <c r="B168" s="46"/>
       <c r="C168" s="5">
         <v>37.32</v>
       </c>
@@ -3753,9 +3889,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="29"/>
-      <c r="B169" s="31"/>
+    <row r="169" spans="1:7">
+      <c r="A169" s="60"/>
+      <c r="B169" s="46"/>
       <c r="C169" s="5">
         <v>58.32</v>
       </c>
@@ -3768,10 +3904,13 @@
       <c r="F169" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="29"/>
-      <c r="B170" s="31">
+      <c r="G169">
+        <v>5518</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="60"/>
+      <c r="B170" s="46">
         <v>4</v>
       </c>
       <c r="C170" s="5">
@@ -3784,9 +3923,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="29"/>
-      <c r="B171" s="31"/>
+    <row r="171" spans="1:7">
+      <c r="A171" s="60"/>
+      <c r="B171" s="46"/>
       <c r="C171" s="5">
         <v>36.799999999999997</v>
       </c>
@@ -3799,10 +3938,13 @@
       <c r="F171" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="29"/>
-      <c r="B172" s="31"/>
+      <c r="G171">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="60"/>
+      <c r="B172" s="46"/>
       <c r="C172" s="5">
         <v>65.08</v>
       </c>
@@ -3813,9 +3955,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="29"/>
-      <c r="B173" s="31"/>
+    <row r="173" spans="1:7">
+      <c r="A173" s="60"/>
+      <c r="B173" s="46"/>
       <c r="C173" s="5">
         <v>36.6</v>
       </c>
@@ -3826,9 +3968,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="29"/>
-      <c r="B174" s="31"/>
+    <row r="174" spans="1:7">
+      <c r="A174" s="60"/>
+      <c r="B174" s="46"/>
       <c r="C174" s="5">
         <v>37.32</v>
       </c>
@@ -3839,9 +3981,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="29"/>
-      <c r="B175" s="31"/>
+    <row r="175" spans="1:7">
+      <c r="A175" s="60"/>
+      <c r="B175" s="46"/>
       <c r="C175" s="5">
         <v>58.32</v>
       </c>
@@ -3852,9 +3994,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="29"/>
-      <c r="B176" s="31">
+    <row r="176" spans="1:7">
+      <c r="A176" s="60"/>
+      <c r="B176" s="46">
         <v>5</v>
       </c>
       <c r="C176" s="5">
@@ -3867,9 +4009,9 @@
         <v>44.86</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="29"/>
-      <c r="B177" s="31"/>
+    <row r="177" spans="1:5">
+      <c r="A177" s="60"/>
+      <c r="B177" s="46"/>
       <c r="C177" s="5">
         <v>36.799999999999997</v>
       </c>
@@ -3880,9 +4022,9 @@
         <v>1030.2</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="29"/>
-      <c r="B178" s="31"/>
+    <row r="178" spans="1:5">
+      <c r="A178" s="60"/>
+      <c r="B178" s="46"/>
       <c r="C178" s="5">
         <v>65.08</v>
       </c>
@@ -3893,9 +4035,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="29"/>
-      <c r="B179" s="31"/>
+    <row r="179" spans="1:5">
+      <c r="A179" s="60"/>
+      <c r="B179" s="46"/>
       <c r="C179" s="5">
         <v>36.6</v>
       </c>
@@ -3906,9 +4048,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="29"/>
-      <c r="B180" s="31"/>
+    <row r="180" spans="1:5">
+      <c r="A180" s="60"/>
+      <c r="B180" s="46"/>
       <c r="C180" s="5">
         <v>38</v>
       </c>
@@ -3919,9 +4061,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A181" s="29"/>
-      <c r="B181" s="31"/>
+    <row r="181" spans="1:5" ht="24">
+      <c r="A181" s="60"/>
+      <c r="B181" s="46"/>
       <c r="C181" s="5">
         <v>58.32</v>
       </c>
@@ -3932,9 +4074,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="29"/>
-      <c r="B182" s="31">
+    <row r="182" spans="1:5">
+      <c r="A182" s="60"/>
+      <c r="B182" s="46">
         <v>6</v>
       </c>
       <c r="C182" s="5">
@@ -3947,9 +4089,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="29"/>
-      <c r="B183" s="31"/>
+    <row r="183" spans="1:5">
+      <c r="A183" s="60"/>
+      <c r="B183" s="46"/>
       <c r="C183" s="5">
         <v>36.799999999999997</v>
       </c>
@@ -3960,9 +4102,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="29"/>
-      <c r="B184" s="31"/>
+    <row r="184" spans="1:5">
+      <c r="A184" s="60"/>
+      <c r="B184" s="46"/>
       <c r="C184" s="5">
         <v>65.08</v>
       </c>
@@ -3973,9 +4115,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="29"/>
-      <c r="B185" s="31"/>
+    <row r="185" spans="1:5">
+      <c r="A185" s="60"/>
+      <c r="B185" s="46"/>
       <c r="C185" s="5">
         <v>36.6</v>
       </c>
@@ -3986,9 +4128,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="29"/>
-      <c r="B186" s="31"/>
+    <row r="186" spans="1:5">
+      <c r="A186" s="60"/>
+      <c r="B186" s="46"/>
       <c r="C186" s="5">
         <v>38</v>
       </c>
@@ -3999,9 +4141,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="29"/>
-      <c r="B187" s="31"/>
+    <row r="187" spans="1:5">
+      <c r="A187" s="60"/>
+      <c r="B187" s="46"/>
       <c r="C187" s="5">
         <v>64.510000000000005</v>
       </c>
@@ -4012,9 +4154,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="29"/>
-      <c r="B188" s="31">
+    <row r="188" spans="1:5">
+      <c r="A188" s="60"/>
+      <c r="B188" s="46">
         <v>7</v>
       </c>
       <c r="C188" s="5">
@@ -4027,9 +4169,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="29"/>
-      <c r="B189" s="31"/>
+    <row r="189" spans="1:5">
+      <c r="A189" s="60"/>
+      <c r="B189" s="46"/>
       <c r="C189" s="5">
         <v>36.799999999999997</v>
       </c>
@@ -4040,9 +4182,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="29"/>
-      <c r="B190" s="31"/>
+    <row r="190" spans="1:5">
+      <c r="A190" s="60"/>
+      <c r="B190" s="46"/>
       <c r="C190" s="5">
         <v>65.08</v>
       </c>
@@ -4053,9 +4195,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="29"/>
-      <c r="B191" s="31"/>
+    <row r="191" spans="1:5">
+      <c r="A191" s="60"/>
+      <c r="B191" s="46"/>
       <c r="C191" s="5">
         <v>36.6</v>
       </c>
@@ -4066,9 +4208,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="29"/>
-      <c r="B192" s="31"/>
+    <row r="192" spans="1:5">
+      <c r="A192" s="60"/>
+      <c r="B192" s="46"/>
       <c r="C192" s="5">
         <v>37.36</v>
       </c>
@@ -4079,9 +4221,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="29"/>
-      <c r="B193" s="31"/>
+    <row r="193" spans="1:6">
+      <c r="A193" s="60"/>
+      <c r="B193" s="46"/>
       <c r="C193" s="5">
         <v>64.510000000000005</v>
       </c>
@@ -4092,9 +4234,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="29"/>
-      <c r="B194" s="31">
+    <row r="194" spans="1:6">
+      <c r="A194" s="60"/>
+      <c r="B194" s="46">
         <v>8</v>
       </c>
       <c r="C194" s="5">
@@ -4107,9 +4249,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="29"/>
-      <c r="B195" s="31"/>
+    <row r="195" spans="1:6">
+      <c r="A195" s="60"/>
+      <c r="B195" s="46"/>
       <c r="C195" s="5">
         <v>36.799999999999997</v>
       </c>
@@ -4121,9 +4263,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="29"/>
-      <c r="B196" s="31"/>
+    <row r="196" spans="1:6">
+      <c r="A196" s="60"/>
+      <c r="B196" s="46"/>
       <c r="C196" s="5">
         <v>65.08</v>
       </c>
@@ -4134,9 +4276,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="29"/>
-      <c r="B197" s="31"/>
+    <row r="197" spans="1:6">
+      <c r="A197" s="60"/>
+      <c r="B197" s="46"/>
       <c r="C197" s="5">
         <v>36.6</v>
       </c>
@@ -4147,9 +4289,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="29"/>
-      <c r="B198" s="31"/>
+    <row r="198" spans="1:6">
+      <c r="A198" s="60"/>
+      <c r="B198" s="46"/>
       <c r="C198" s="5">
         <v>37.32</v>
       </c>
@@ -4160,9 +4302,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="29"/>
-      <c r="B199" s="31"/>
+    <row r="199" spans="1:6">
+      <c r="A199" s="60"/>
+      <c r="B199" s="46"/>
       <c r="C199" s="5">
         <v>58.32</v>
       </c>
@@ -4173,9 +4315,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="29"/>
-      <c r="B200" s="31">
+    <row r="200" spans="1:6">
+      <c r="A200" s="60"/>
+      <c r="B200" s="46">
         <v>9</v>
       </c>
       <c r="C200" s="5">
@@ -4188,9 +4330,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="29"/>
-      <c r="B201" s="31"/>
+    <row r="201" spans="1:6">
+      <c r="A201" s="60"/>
+      <c r="B201" s="46"/>
       <c r="C201" s="5">
         <v>36.799999999999997</v>
       </c>
@@ -4201,9 +4343,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="29"/>
-      <c r="B202" s="31"/>
+    <row r="202" spans="1:6">
+      <c r="A202" s="60"/>
+      <c r="B202" s="46"/>
       <c r="C202" s="5">
         <v>65.040000000000006</v>
       </c>
@@ -4214,9 +4356,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="29"/>
-      <c r="B203" s="31"/>
+    <row r="203" spans="1:6">
+      <c r="A203" s="60"/>
+      <c r="B203" s="46"/>
       <c r="C203" s="5">
         <v>36.6</v>
       </c>
@@ -4227,9 +4369,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="29"/>
-      <c r="B204" s="31"/>
+    <row r="204" spans="1:6">
+      <c r="A204" s="60"/>
+      <c r="B204" s="46"/>
       <c r="C204" s="5">
         <v>37.32</v>
       </c>
@@ -4240,9 +4382,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="29"/>
-      <c r="B205" s="31"/>
+    <row r="205" spans="1:6">
+      <c r="A205" s="60"/>
+      <c r="B205" s="46"/>
       <c r="C205" s="5">
         <v>64.510000000000005</v>
       </c>
@@ -4253,9 +4395,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="26"/>
-      <c r="B206" s="31">
+    <row r="206" spans="1:6">
+      <c r="A206" s="57"/>
+      <c r="B206" s="46">
         <v>10</v>
       </c>
       <c r="C206" s="5">
@@ -4268,9 +4410,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="26"/>
-      <c r="B207" s="31"/>
+    <row r="207" spans="1:6">
+      <c r="A207" s="57"/>
+      <c r="B207" s="46"/>
       <c r="C207" s="5">
         <v>36.799999999999997</v>
       </c>
@@ -4281,9 +4423,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="26"/>
-      <c r="B208" s="31"/>
+    <row r="208" spans="1:6">
+      <c r="A208" s="57"/>
+      <c r="B208" s="46"/>
       <c r="C208" s="5">
         <v>65.040000000000006</v>
       </c>
@@ -4294,9 +4436,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="26"/>
-      <c r="B209" s="31"/>
+    <row r="209" spans="1:6">
+      <c r="A209" s="57"/>
+      <c r="B209" s="46"/>
       <c r="C209" s="5">
         <v>36.6</v>
       </c>
@@ -4307,9 +4449,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="26"/>
-      <c r="B210" s="31"/>
+    <row r="210" spans="1:6">
+      <c r="A210" s="57"/>
+      <c r="B210" s="46"/>
       <c r="C210" s="5">
         <v>37.32</v>
       </c>
@@ -4320,68 +4462,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="30"/>
-      <c r="B211" s="32"/>
+    <row r="211" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A211" s="61"/>
+      <c r="B211" s="62"/>
       <c r="C211" s="12">
         <v>64.510000000000005</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E211" s="17"/>
+      <c r="E211" s="16"/>
       <c r="F211" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E212" s="18">
+    <row r="212" spans="1:6">
+      <c r="C212" s="24">
+        <f>SUM(C5:C211)</f>
+        <v>11942.229999999987</v>
+      </c>
+      <c r="E212" s="17">
         <f>SUM(E7:E211)</f>
         <v>85312.39999999998</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A5:A49"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="A50:A85"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B158:B163"/>
-    <mergeCell ref="B101:B105"/>
-    <mergeCell ref="B106:B110"/>
-    <mergeCell ref="B111:B115"/>
-    <mergeCell ref="B116:B120"/>
-    <mergeCell ref="B149:B151"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="B152:B154"/>
-    <mergeCell ref="B155:B157"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="B140:B142"/>
-    <mergeCell ref="B143:B145"/>
-    <mergeCell ref="B146:B148"/>
+  <mergeCells count="57">
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A86:A130"/>
     <mergeCell ref="A158:A211"/>
     <mergeCell ref="B188:B193"/>
@@ -4397,7 +4504,47 @@
     <mergeCell ref="B91:B95"/>
     <mergeCell ref="B96:B100"/>
     <mergeCell ref="B164:B169"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="B152:B154"/>
+    <mergeCell ref="B155:B157"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="B140:B142"/>
+    <mergeCell ref="B143:B145"/>
+    <mergeCell ref="B146:B148"/>
+    <mergeCell ref="B158:B163"/>
+    <mergeCell ref="B101:B105"/>
+    <mergeCell ref="B106:B110"/>
+    <mergeCell ref="B111:B115"/>
+    <mergeCell ref="B116:B120"/>
+    <mergeCell ref="B149:B151"/>
     <mergeCell ref="B131:B133"/>
+    <mergeCell ref="A50:A85"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A5:A49"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="D47:D48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4405,14 +4552,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
@@ -4421,7 +4568,7 @@
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>209</v>
       </c>
@@ -4429,492 +4576,500 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:8" ht="30" customHeight="1">
+      <c r="A2" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="63" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="63"/>
+      <c r="D2" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="20" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-    </row>
-    <row r="4" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-    </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-    </row>
-    <row r="6" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-    </row>
-    <row r="7" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-    </row>
-    <row r="8" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-    </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-    </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-    </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-    </row>
-    <row r="15" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-    </row>
-    <row r="21" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-    </row>
-    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-    </row>
-    <row r="24" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-    </row>
-    <row r="25" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-    </row>
-    <row r="26" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-    </row>
-    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-    </row>
-    <row r="28" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-    </row>
-    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-    </row>
-    <row r="30" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-    </row>
-    <row r="31" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-    </row>
-    <row r="32" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-    </row>
-    <row r="33" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-    </row>
-    <row r="34" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-    </row>
-    <row r="35" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-    </row>
-    <row r="36" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
+    <row r="3" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A3" s="20"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A4" s="20"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1">
+      <c r="A5" s="20"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A6" s="20"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A7" s="20"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A8" s="20"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1">
+      <c r="A9" s="20"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1">
+      <c r="A11" s="20"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1">
+      <c r="A13" s="20"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A15" s="20"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1">
+      <c r="A16" s="20"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A17" s="20"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1">
+      <c r="A18" s="20"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1">
+      <c r="A19" s="20"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1">
+      <c r="A20" s="20"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A21" s="20"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" customHeight="1">
+      <c r="A22" s="20"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="1:8" ht="30" customHeight="1">
+      <c r="A23" s="20"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A24" s="20"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+    </row>
+    <row r="25" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+    </row>
+    <row r="26" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+    </row>
+    <row r="27" spans="1:8" ht="30" customHeight="1">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+    </row>
+    <row r="28" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+    </row>
+    <row r="29" spans="1:8" ht="30" customHeight="1">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+    </row>
+    <row r="30" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+    </row>
+    <row r="31" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+    </row>
+    <row r="32" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+    </row>
+    <row r="33" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+    </row>
+    <row r="34" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+    </row>
+    <row r="35" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+    </row>
+    <row r="36" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -4930,16 +5085,233 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="5">
+        <v>36.57</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1711.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5">
+        <v>73.83</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="15">
+        <v>6614.89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5">
+        <v>64.510000000000005</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="5">
+        <v>64.510000000000005</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="15">
+        <v>5994.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5">
+        <v>36.57</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="64">
+        <v>7926.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5">
+        <v>65.040000000000006</v>
+      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="65"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="31">
+        <v>58.27</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="33">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="24">
+      <c r="A9" s="5">
+        <v>37.36</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="15">
+        <v>89.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5">
+        <v>75.510000000000005</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="15">
+        <v>25.56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5">
+        <v>65</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="15">
+        <v>371.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="5">
+        <v>58.32</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="20">
+        <v>5518</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="5">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="20">
+        <v>3482</v>
+      </c>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="5">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1030.2</v>
+      </c>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="5">
+        <v>170</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" s="30">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="5">
+        <v>77.98</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="20">
+        <v>6411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="63"/>
+      <c r="C17" s="30">
+        <f>SUM(C2:C16)</f>
+        <v>69775.149999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19">
+        <v>155750</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" s="17">
+        <f>SUM(C17:C19)</f>
+        <v>225525.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C6:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>